--- a/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4522573288567778</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0344180080643281</v>
+        <v>0.03441800806432811</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6584168071646989</v>
@@ -685,7 +685,7 @@
         <v>0.5062358264709707</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05567716541617911</v>
+        <v>0.05567716541617913</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5997739687902426</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4504028885897443</v>
+        <v>0.4543001207920437</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4236557460106971</v>
+        <v>0.4280315358932418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3714064209521075</v>
+        <v>0.3728124423232098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01875434297900865</v>
+        <v>0.01860365817488707</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5843505828982836</v>
+        <v>0.5842834657645667</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6093489136347129</v>
+        <v>0.6027308412427992</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4340111535594197</v>
+        <v>0.4343690886659161</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03702816890317859</v>
+        <v>0.03843374706553939</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5483185620107265</v>
+        <v>0.5424313907411412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5469754363565115</v>
+        <v>0.5395359907807257</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4255779706768735</v>
+        <v>0.4296282647575017</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03273944142077897</v>
+        <v>0.03265440692820865</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6216473834390754</v>
+        <v>0.6143961155782912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5848819145679163</v>
+        <v>0.5754732253431827</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5250273059007011</v>
+        <v>0.5239017361359136</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05632157415209851</v>
+        <v>0.05502033421441509</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7344039728573827</v>
+        <v>0.7301133513983131</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7383822703016244</v>
+        <v>0.7367438599571301</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5739965899753536</v>
+        <v>0.5785404502328526</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07667579510541149</v>
+        <v>0.07742256204374783</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6569583784861412</v>
+        <v>0.6524617704920613</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.649606973637288</v>
+        <v>0.6438079375409826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5302090028645893</v>
+        <v>0.5330977934406995</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06047999385360685</v>
+        <v>0.0610024651242339</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.4391893633900575</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0981170262518478</v>
+        <v>0.09811702625184782</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2325782287995388</v>
+        <v>0.2301571160367709</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3626960382933978</v>
+        <v>0.3692180076777953</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3273968606852466</v>
+        <v>0.3262523061702809</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04490492944499561</v>
+        <v>0.04276223419063095</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3530041017640227</v>
+        <v>0.3514631134635472</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5474783870187414</v>
+        <v>0.5438045552538641</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.425202799490769</v>
+        <v>0.4251115123821794</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1056439406915743</v>
+        <v>0.1028533666957614</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3095400110067619</v>
+        <v>0.3130134124027926</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4752298451630035</v>
+        <v>0.4757199933102764</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3985786768522433</v>
+        <v>0.4000074039021905</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08006740203937819</v>
+        <v>0.07989890496354601</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.346059912099775</v>
+        <v>0.3402551128915014</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4802733651520419</v>
+        <v>0.4806527103114644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4481934743708246</v>
+        <v>0.4488247415893027</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09429233654046146</v>
+        <v>0.09507757887208099</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4535276603021079</v>
+        <v>0.4572605595302662</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6523057098465426</v>
+        <v>0.649789714185856</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5398839453230627</v>
+        <v>0.5353319483615803</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.160601297548064</v>
+        <v>0.1595600335288188</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3850535721098265</v>
+        <v>0.3904133222884181</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5593659760138715</v>
+        <v>0.5588541170944079</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4803284862979006</v>
+        <v>0.4791119678089271</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1190217551072078</v>
+        <v>0.1180989370502288</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4104313897232202</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06225830002636989</v>
+        <v>0.06225830002636987</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3233416286827092</v>
+        <v>0.3296786306311843</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4478413717297121</v>
+        <v>0.4463994347608541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3230804638309181</v>
+        <v>0.316587415713819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03573735501501469</v>
+        <v>0.03662574216841629</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.422116561580041</v>
+        <v>0.4167851596471803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5180062455352306</v>
+        <v>0.5207425543792765</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3632080996695281</v>
+        <v>0.3656411156391639</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04787298158095104</v>
+        <v>0.04789997694294346</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3987261691364812</v>
+        <v>0.3951446734975488</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5078162701048113</v>
+        <v>0.5108390612688588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3681370754168563</v>
+        <v>0.3685274351612666</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04788542184435437</v>
+        <v>0.04709567846850326</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4762207097008071</v>
+        <v>0.4693006114237129</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5965898569851606</v>
+        <v>0.5865533491609862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.464648278922125</v>
+        <v>0.4577183847022794</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08415566241113097</v>
+        <v>0.08449581762821042</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5559109896021384</v>
+        <v>0.5477480288216884</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6516663500411295</v>
+        <v>0.6588438933476268</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4974070332775491</v>
+        <v>0.499184869691824</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09324780491589871</v>
+        <v>0.09302305348745613</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4933267097609028</v>
+        <v>0.4922047145276809</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6068485611066138</v>
+        <v>0.6077702273858527</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4569061459128466</v>
+        <v>0.4549002769119319</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08155113560667465</v>
+        <v>0.07996851047661126</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4860997774412305</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1321704031798264</v>
+        <v>0.1321704031798265</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.478692750023209</v>
@@ -1105,7 +1105,7 @@
         <v>0.4238542821527015</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.11301012802388</v>
+        <v>0.1130101280238799</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3996857139161704</v>
+        <v>0.3930849386046949</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.413288729905042</v>
+        <v>0.4163819239904483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2709294747631814</v>
+        <v>0.2762561569691859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05891997000788229</v>
+        <v>0.05408628860265975</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4303862484639702</v>
+        <v>0.4304848561809774</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5629490953505119</v>
+        <v>0.5665789260975779</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4226072734025864</v>
+        <v>0.4231651175157775</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1054535153596289</v>
+        <v>0.1015195599963468</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4306071236871567</v>
+        <v>0.4331759996943003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5098346462094527</v>
+        <v>0.5123708000493994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3768213180622336</v>
+        <v>0.3789881618415821</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09024993798978509</v>
+        <v>0.09106610536982031</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5375153726681656</v>
+        <v>0.531282740967748</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5465489649972823</v>
+        <v>0.5504616176823017</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4125399948939056</v>
+        <v>0.4176489672103726</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1375562020406017</v>
+        <v>0.1362745838753881</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5526370694039505</v>
+        <v>0.5525632612904995</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6781005132305784</v>
+        <v>0.6795179494538628</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5559396635748622</v>
+        <v>0.5443721716710083</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1685035197292785</v>
+        <v>0.1638080533984289</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5246190811444534</v>
+        <v>0.5251886558773248</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6024061864321653</v>
+        <v>0.6020933695633068</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4731917346912815</v>
+        <v>0.4733489165686646</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1414991751328306</v>
+        <v>0.1420555862347452</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5886778966166706</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08871684693417789</v>
+        <v>0.08871684693417788</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.360442683343166</v>
@@ -1241,7 +1241,7 @@
         <v>0.5996851068354638</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07623540892807805</v>
+        <v>0.07623540892807806</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.21358431807502</v>
+        <v>0.2058684284044193</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.307371431936509</v>
+        <v>0.309897742354967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4979777235159196</v>
+        <v>0.5042581223466771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05348173850440784</v>
+        <v>0.05590103996460207</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2839187606005463</v>
+        <v>0.2848869752616709</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.495405255108077</v>
+        <v>0.4831196075575092</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5243437179128815</v>
+        <v>0.5277738287579538</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04335501033886566</v>
+        <v>0.04338506712091229</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2762447601987845</v>
+        <v>0.2778636137293083</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4280624490679916</v>
+        <v>0.4257424441936506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5450539482954843</v>
+        <v>0.5329231123267546</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05678001395043985</v>
+        <v>0.05706782900126815</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3851479021453302</v>
+        <v>0.3861714714676696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4711315624150242</v>
+        <v>0.4716734992304659</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6715823455621682</v>
+        <v>0.6610871535200181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1326267219793699</v>
+        <v>0.1339409219254813</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4438781462782678</v>
+        <v>0.4392650245850012</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6479637689686775</v>
+        <v>0.641392149174007</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6855975261060212</v>
+        <v>0.6912319639404971</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09668449542384985</v>
+        <v>0.0948613863982327</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3924881327817419</v>
+        <v>0.3983379423022324</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5414457328638583</v>
+        <v>0.5453981276518225</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6581069052207633</v>
+        <v>0.6542962800332676</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.103266478676959</v>
+        <v>0.1011992693132877</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4162094686599806</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.123446129922163</v>
+        <v>0.1234461299221629</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4165958812393671</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3588790831236275</v>
+        <v>0.3549051899665103</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4232845892783934</v>
+        <v>0.4263240165523991</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3225372100336737</v>
+        <v>0.32250767129156</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08826371513550037</v>
+        <v>0.08334847452514833</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3301850936039595</v>
+        <v>0.3261914192926281</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5076460636318331</v>
+        <v>0.5080742536374175</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3404905227006864</v>
+        <v>0.3332037284179208</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09324903415573454</v>
+        <v>0.09424007368905456</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3673542699095433</v>
+        <v>0.360628228676407</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4900279806229161</v>
+        <v>0.4902735182010418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3576023624391761</v>
+        <v>0.3521687997443415</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09777662259386978</v>
+        <v>0.09662483264247508</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5121042271282514</v>
+        <v>0.5054555816457322</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5798943082645319</v>
+        <v>0.5763475428063</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4750611739968318</v>
+        <v>0.4753306497525355</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1604503241404033</v>
+        <v>0.1577690240700429</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4747942100034209</v>
+        <v>0.4879101918178862</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6498389676241625</v>
+        <v>0.6446212387611627</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5008731935049083</v>
+        <v>0.4920946392585259</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1635950701348096</v>
+        <v>0.1633441120090529</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4775754551149931</v>
+        <v>0.4693449027368047</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5949711884249306</v>
+        <v>0.593470294242856</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4666169595414497</v>
+        <v>0.4628336749219779</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1454519927538006</v>
+        <v>0.1447138109747486</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.296573599822355</v>
+        <v>0.3013447468640942</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5645380866404793</v>
+        <v>0.5613890905876466</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.36362813115727</v>
+        <v>0.3657998749397757</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02063181159926398</v>
+        <v>0.0203808939125641</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4673730024533446</v>
+        <v>0.4653717273938163</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5958147762088308</v>
+        <v>0.5989018187862017</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4464680152886307</v>
+        <v>0.4461855765519869</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03758235808899626</v>
+        <v>0.03751117661384001</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.410000805110238</v>
+        <v>0.4083615789922701</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5951589631710071</v>
+        <v>0.5925207425732941</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4264028619001617</v>
+        <v>0.4289696703750456</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03147043131865096</v>
+        <v>0.03183597739672922</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.400229800326831</v>
+        <v>0.3987094492024926</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6662617560854567</v>
+        <v>0.6620899228259598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4803690519621666</v>
+        <v>0.4800677531196121</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05269227668816562</v>
+        <v>0.05190175139238658</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5579097130423177</v>
+        <v>0.5627567251790072</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6881743181386085</v>
+        <v>0.6870285034601318</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5431738332802563</v>
+        <v>0.5481661217179419</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06502476373466501</v>
+        <v>0.06451612013864302</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4811462337381619</v>
+        <v>0.4810272058229307</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6618578152111024</v>
+        <v>0.6593528692485628</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4996612000148686</v>
+        <v>0.5011834386014405</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05150471725912634</v>
+        <v>0.05224101276816952</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.5895980476376904</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2728517975038013</v>
+        <v>0.2728517975038014</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3739426440072642</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.283893137143272</v>
+        <v>0.2892499490494411</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4214548533658412</v>
+        <v>0.4178174989894525</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4752423938926711</v>
+        <v>0.4706355275126394</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1501335557173899</v>
+        <v>0.1516952550804786</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3665887760098259</v>
+        <v>0.3655846836151242</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5761236408321403</v>
+        <v>0.5729060950266367</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5429997265314163</v>
+        <v>0.5482216042461908</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2450130635351119</v>
+        <v>0.2467343328357934</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3419626970978186</v>
+        <v>0.344701965806459</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5192399393629945</v>
+        <v>0.5172298015852608</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5261711865483645</v>
+        <v>0.5294842627070171</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2080126967677676</v>
+        <v>0.2082249571238333</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3739864160754</v>
+        <v>0.3759583948644599</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5145779418685871</v>
+        <v>0.5127472518977153</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5689343229038117</v>
+        <v>0.5658264327142998</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2067702181000488</v>
+        <v>0.2061987782912062</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.453346287914365</v>
+        <v>0.4546571952328043</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6584607412641973</v>
+        <v>0.6549288941101461</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6283874174262719</v>
+        <v>0.6299354692851633</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3005401672963559</v>
+        <v>0.3008515855432224</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4038209702986901</v>
+        <v>0.4041598709799007</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5804590403255397</v>
+        <v>0.5766246776860241</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5906191915763337</v>
+        <v>0.5918177665113488</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2475535548922917</v>
+        <v>0.2470090033773158</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4184355226542751</v>
+        <v>0.4206750455528657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07944826271950657</v>
+        <v>0.07795703078252395</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5954253542089712</v>
+        <v>0.5961312239354161</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4912804575366539</v>
+        <v>0.4903669355975773</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.119086193978789</v>
+        <v>0.1184181477089327</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.544704203860465</v>
+        <v>0.5450909527022776</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4655411691895628</v>
+        <v>0.4641178742951955</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1021802560258225</v>
+        <v>0.1021148609654936</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4633770096604093</v>
+        <v>0.4655816956750568</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0995366328128586</v>
+        <v>0.09979285974013072</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6340260702513091</v>
+        <v>0.6342134912009012</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5338602065694077</v>
+        <v>0.5316721693369082</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1387704893502798</v>
+        <v>0.1383096580329775</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.5736908535048751</v>
+        <v>0.5739189378405558</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4963613103609708</v>
+        <v>0.4959272555984746</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1164543098162483</v>
+        <v>0.1165591015863938</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>66176</v>
+        <v>66749</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>75294</v>
+        <v>76071</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64425</v>
+        <v>64668</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5980</v>
+        <v>5932</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>97039</v>
+        <v>97028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>127161</v>
+        <v>125780</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>86911</v>
+        <v>86983</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11703</v>
+        <v>12147</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>171619</v>
+        <v>169776</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>211356</v>
+        <v>208481</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>159044</v>
+        <v>160557</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20786</v>
+        <v>20732</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>91337</v>
+        <v>90271</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>103948</v>
+        <v>102275</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>91072</v>
+        <v>90877</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17958</v>
+        <v>17543</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>121957</v>
+        <v>121245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>154088</v>
+        <v>153746</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114943</v>
+        <v>115853</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24234</v>
+        <v>24470</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>205622</v>
+        <v>204215</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>251013</v>
+        <v>248773</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>198145</v>
+        <v>199225</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>38399</v>
+        <v>38731</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>66508</v>
+        <v>65815</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>114910</v>
+        <v>116976</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>85850</v>
+        <v>85550</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23829</v>
+        <v>22692</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>125046</v>
+        <v>124501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>196222</v>
+        <v>194906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>137052</v>
+        <v>137022</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>57734</v>
+        <v>56209</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>198166</v>
+        <v>200389</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>320890</v>
+        <v>321221</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>232986</v>
+        <v>233821</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>86244</v>
+        <v>86062</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>98959</v>
+        <v>97299</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>152161</v>
+        <v>152281</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>117526</v>
+        <v>117691</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>50036</v>
+        <v>50453</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>160655</v>
+        <v>161978</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>233794</v>
+        <v>232892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>174016</v>
+        <v>172549</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>87768</v>
+        <v>87199</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>246509</v>
+        <v>249940</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>377702</v>
+        <v>377356</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>280772</v>
+        <v>280061</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>128203</v>
+        <v>127209</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>61488</v>
+        <v>62693</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>91895</v>
+        <v>91599</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>57395</v>
+        <v>56241</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11293</v>
+        <v>11573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>95402</v>
+        <v>94197</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>124114</v>
+        <v>124769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>77057</v>
+        <v>77573</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17061</v>
+        <v>17071</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>165939</v>
+        <v>164449</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>225874</v>
+        <v>227218</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>143502</v>
+        <v>143654</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>32197</v>
+        <v>31666</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90560</v>
+        <v>89244</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>122417</v>
+        <v>120358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>82544</v>
+        <v>81313</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26593</v>
+        <v>26700</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>125641</v>
+        <v>123796</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>156139</v>
+        <v>157858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>105528</v>
+        <v>105905</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33232</v>
+        <v>33152</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>205309</v>
+        <v>204842</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>269923</v>
+        <v>270333</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>178104</v>
+        <v>177322</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>54833</v>
+        <v>53769</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>79581</v>
+        <v>78267</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>100746</v>
+        <v>101500</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51887</v>
+        <v>52907</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21986</v>
+        <v>20182</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>105548</v>
+        <v>105573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>164759</v>
+        <v>165821</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>108043</v>
+        <v>108185</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>44497</v>
+        <v>42837</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>191340</v>
+        <v>192482</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>273494</v>
+        <v>274855</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>168504</v>
+        <v>169473</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>71758</v>
+        <v>72407</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>107024</v>
+        <v>105783</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>133230</v>
+        <v>134184</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>79008</v>
+        <v>79986</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>51328</v>
+        <v>50850</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>135529</v>
+        <v>135511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>198460</v>
+        <v>198875</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>142130</v>
+        <v>139173</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>71102</v>
+        <v>69121</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>233114</v>
+        <v>233368</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>323153</v>
+        <v>322985</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>211599</v>
+        <v>211669</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>112507</v>
+        <v>112949</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23086</v>
+        <v>22252</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>44588</v>
+        <v>44954</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>66630</v>
+        <v>67471</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10999</v>
+        <v>11497</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>42500</v>
+        <v>42645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>82505</v>
+        <v>80459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>76301</v>
+        <v>76801</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>9925</v>
+        <v>9932</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>71210</v>
+        <v>71628</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>133386</v>
+        <v>132663</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>152244</v>
+        <v>148856</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>24676</v>
+        <v>24801</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41630</v>
+        <v>41741</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>68343</v>
+        <v>68422</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>89859</v>
+        <v>88455</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27277</v>
+        <v>27547</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>66445</v>
+        <v>65754</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>107913</v>
+        <v>106818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>99767</v>
+        <v>100587</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>22133</v>
+        <v>21715</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>101176</v>
+        <v>102684</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>168716</v>
+        <v>169948</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>183822</v>
+        <v>182758</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>44878</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>58269</v>
+        <v>57624</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>74480</v>
+        <v>75015</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>52000</v>
+        <v>51995</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23894</v>
+        <v>22563</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>58931</v>
+        <v>58218</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>103741</v>
+        <v>103828</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>58468</v>
+        <v>57217</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>24594</v>
+        <v>24856</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>125210</v>
+        <v>122918</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>186365</v>
+        <v>186458</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>119059</v>
+        <v>117250</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>52257</v>
+        <v>51642</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>83147</v>
+        <v>82068</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>102037</v>
+        <v>101413</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>76590</v>
+        <v>76633</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43435</v>
+        <v>42709</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>84741</v>
+        <v>87082</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>132798</v>
+        <v>131732</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>86008</v>
+        <v>84501</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43148</v>
+        <v>43082</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>162778</v>
+        <v>159973</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>226276</v>
+        <v>225705</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>155354</v>
+        <v>154094</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>77738</v>
+        <v>77343</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>104249</v>
+        <v>105926</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>224087</v>
+        <v>222837</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>123735</v>
+        <v>124474</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>14848</v>
+        <v>14668</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>207015</v>
+        <v>206129</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>272056</v>
+        <v>273465</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>198009</v>
+        <v>197884</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>29016</v>
+        <v>28961</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>325723</v>
+        <v>324421</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>507997</v>
+        <v>505745</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>334206</v>
+        <v>336218</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>46946</v>
+        <v>47491</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>140685</v>
+        <v>140151</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>264465</v>
+        <v>262809</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>163459</v>
+        <v>163356</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>37922</v>
+        <v>37353</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>247117</v>
+        <v>249264</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>314228</v>
+        <v>313705</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>240899</v>
+        <v>243113</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50203</v>
+        <v>49810</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>382244</v>
+        <v>382150</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>564928</v>
+        <v>562790</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>391624</v>
+        <v>392818</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>76832</v>
+        <v>77930</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>132323</v>
+        <v>134820</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>200554</v>
+        <v>198823</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>217081</v>
+        <v>214977</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>119817</v>
+        <v>121064</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>197486</v>
+        <v>196945</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>339890</v>
+        <v>337992</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>317057</v>
+        <v>320106</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>203687</v>
+        <v>205118</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>343609</v>
+        <v>346361</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>553416</v>
+        <v>551274</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>547575</v>
+        <v>551023</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>338937</v>
+        <v>339282</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>174316</v>
+        <v>175235</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>244867</v>
+        <v>243996</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>259878</v>
+        <v>258458</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>165018</v>
+        <v>164561</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>244223</v>
+        <v>244929</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>388465</v>
+        <v>386382</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>366915</v>
+        <v>367819</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>249848</v>
+        <v>250107</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>405765</v>
+        <v>406105</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>618665</v>
+        <v>614578</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>614645</v>
+        <v>615892</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>403365</v>
+        <v>402477</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>793742</v>
+        <v>797990</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>280672</v>
+        <v>275404</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1498584</v>
+        <v>1500361</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1147150</v>
+        <v>1145017</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>445020</v>
+        <v>442523</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2535138</v>
+        <v>2536938</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1970146</v>
+        <v>1964123</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>742821</v>
+        <v>742346</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>878993</v>
+        <v>883175</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>351639</v>
+        <v>352544</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1595736</v>
+        <v>1596208</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1246574</v>
+        <v>1241465</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>518579</v>
+        <v>516857</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2670047</v>
+        <v>2671108</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2100575</v>
+        <v>2098738</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>846590</v>
+        <v>847352</v>
       </c>
     </row>
     <row r="40">
